--- a/docs/Proyect_Change/change_contro-PETManager.xlsx
+++ b/docs/Proyect_Change/change_contro-PETManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14460" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud de cambios" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Fecha</t>
   </si>
@@ -219,20 +219,6 @@
     <t>Requerimiento de cambio  C5</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Estado: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PROGRESO</t>
-    </r>
-  </si>
-  <si>
     <t>Creacion Ruta con Html de Resumen   @Route/resumen</t>
   </si>
   <si>
@@ -242,12 +228,6 @@
     <t>Opcion que permite visualizar un resumen de la informacion</t>
   </si>
   <si>
-    <t xml:space="preserve">No entregado </t>
-  </si>
-  <si>
-    <t>Modificar errores de ingreso de cualquier dato ingresado, errores de inicio</t>
-  </si>
-  <si>
     <t>Web App</t>
   </si>
   <si>
@@ -272,26 +252,6 @@
     <t>Requerimiento de cambio  C6</t>
   </si>
   <si>
-    <t>Modulo Modficacion de ultimo dato</t>
-  </si>
-  <si>
-    <t>Modificacion del modulo para que pueda modificar cuaquier dato</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Estado: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SOLICITUD</t>
-    </r>
-  </si>
-  <si>
     <t>Pagina index sin contenido ( redireccion a login)</t>
   </si>
   <si>
@@ -299,6 +259,21 @@
   </si>
   <si>
     <t>Modificacion del idex para mejorar la presentacion de la aplicación.</t>
+  </si>
+  <si>
+    <t>Modificar errores de ingreso de dato - Dosificacion</t>
+  </si>
+  <si>
+    <t>Modulo Modficacion de datos Dosificacion Paciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregado </t>
+  </si>
+  <si>
+    <t>Modulo de Modificacion en GUI - Permite elegir dosificacion y cambiar los datos</t>
+  </si>
+  <si>
+    <t>Modificacion del modulo para que pueda modificar cuaquier dato de dosificacion</t>
   </si>
 </sst>
 </file>
@@ -891,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1101,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>15</v>
@@ -1112,7 +1087,7 @@
     </row>
     <row r="19" spans="3:10" ht="45">
       <c r="C19" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="6">
         <v>43610</v>
@@ -1124,21 +1099,21 @@
         <v>19</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="30">
       <c r="C20" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6">
         <v>43614</v>
@@ -1147,19 +1122,19 @@
         <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1399,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1504,7 +1479,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1518,7 +1493,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1531,10 +1506,10 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1547,10 +1522,10 @@
     </row>
     <row r="7" spans="2:3" ht="30">
       <c r="B7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1574,7 +1549,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1585,10 +1560,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23">
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1599,11 +1574,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" ht="30">
       <c r="B5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="12" t="s">
@@ -1615,10 +1592,10 @@
     </row>
     <row r="7" spans="2:3" ht="30">
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1641,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1653,10 +1630,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23">
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -1669,10 +1646,10 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1685,10 +1662,10 @@
     </row>
     <row r="7" spans="2:3" ht="30">
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3">
